--- a/uploads/LISTING_FACT.xlsx
+++ b/uploads/LISTING_FACT.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27813"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adexlogistique-my.sharepoint.com/personal/arnaud_adex-logistique_fr/Documents/Bureau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B3D68E3-734B-4AD8-BF73-7A0B870963F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{725C7ACF-F197-467D-B77F-A62E0D77740B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="51420" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6023" uniqueCount="1109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6046" uniqueCount="1118">
   <si>
     <t>-</t>
   </si>
@@ -3418,6 +3421,33 @@
   </si>
   <si>
     <t>15130 - Sansac-de-Marmiesse</t>
+  </si>
+  <si>
+    <t>2024-06-020183</t>
+  </si>
+  <si>
+    <t>C006666</t>
+  </si>
+  <si>
+    <t>Cognito inc.</t>
+  </si>
+  <si>
+    <t>6COGN</t>
+  </si>
+  <si>
+    <t>Route 66</t>
+  </si>
+  <si>
+    <t>Gotham</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DC </t>
+  </si>
+  <si>
+    <t>Inc cognito</t>
   </si>
   <si>
     <t>Total</t>
@@ -3427,7 +3457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3811,57 +3841,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AR237"/>
+  <dimension ref="A1:AR238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="O242" sqref="O242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" customWidth="1"/>
-    <col min="2" max="3" width="13.36328125" customWidth="1"/>
-    <col min="4" max="4" width="12.54296875" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" customWidth="1"/>
-    <col min="7" max="7" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="41.6328125" customWidth="1"/>
+    <col min="9" max="9" width="41.5703125" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="26.6328125" customWidth="1"/>
-    <col min="13" max="13" width="31.6328125" customWidth="1"/>
-    <col min="14" max="14" width="29.90625" customWidth="1"/>
-    <col min="15" max="15" width="21.6328125" customWidth="1"/>
-    <col min="16" max="16" width="26.6328125" customWidth="1"/>
-    <col min="17" max="17" width="31.6328125" customWidth="1"/>
-    <col min="18" max="18" width="29.90625" customWidth="1"/>
-    <col min="19" max="19" width="21.6328125" customWidth="1"/>
-    <col min="20" max="20" width="13.90625" customWidth="1"/>
-    <col min="21" max="21" width="13.36328125" customWidth="1"/>
-    <col min="22" max="22" width="11.1796875" customWidth="1"/>
-    <col min="23" max="23" width="14.1796875" customWidth="1"/>
-    <col min="24" max="24" width="13.36328125" customWidth="1"/>
-    <col min="25" max="25" width="14.1796875" customWidth="1"/>
-    <col min="26" max="26" width="16.90625" customWidth="1"/>
+    <col min="12" max="12" width="26.5703125" customWidth="1"/>
+    <col min="13" max="13" width="31.5703125" customWidth="1"/>
+    <col min="14" max="14" width="29.85546875" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="17" width="31.5703125" customWidth="1"/>
+    <col min="18" max="18" width="29.85546875" customWidth="1"/>
+    <col min="19" max="19" width="21.5703125" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" customWidth="1"/>
+    <col min="23" max="23" width="14.140625" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="18" customWidth="1"/>
+    <col min="26" max="26" width="16.85546875" customWidth="1"/>
     <col min="27" max="27" width="12" customWidth="1"/>
-    <col min="28" max="28" width="13.54296875" customWidth="1"/>
-    <col min="29" max="29" width="18.36328125" customWidth="1"/>
-    <col min="30" max="30" width="11.6328125" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" customWidth="1"/>
+    <col min="29" max="29" width="18.42578125" customWidth="1"/>
+    <col min="30" max="30" width="11.5703125" customWidth="1"/>
     <col min="31" max="32" width="5" customWidth="1"/>
-    <col min="33" max="33" width="16.6328125" customWidth="1"/>
-    <col min="34" max="34" width="11.6328125" customWidth="1"/>
-    <col min="35" max="37" width="14.1796875" customWidth="1"/>
-    <col min="38" max="38" width="11.6328125" customWidth="1"/>
-    <col min="39" max="39" width="6.6328125" customWidth="1"/>
-    <col min="40" max="40" width="8.36328125" customWidth="1"/>
-    <col min="41" max="41" width="13.36328125" customWidth="1"/>
-    <col min="42" max="42" width="8.36328125" customWidth="1"/>
-    <col min="43" max="43" width="6.6328125" customWidth="1"/>
-    <col min="44" max="44" width="13.90625" customWidth="1"/>
+    <col min="33" max="33" width="16.5703125" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" customWidth="1"/>
+    <col min="35" max="36" width="14.140625" customWidth="1"/>
+    <col min="37" max="37" width="19" customWidth="1"/>
+    <col min="38" max="38" width="11.5703125" customWidth="1"/>
+    <col min="39" max="39" width="6.5703125" customWidth="1"/>
+    <col min="40" max="40" width="8.42578125" customWidth="1"/>
+    <col min="41" max="41" width="13.42578125" customWidth="1"/>
+    <col min="42" max="42" width="8.42578125" customWidth="1"/>
+    <col min="43" max="43" width="6.5703125" customWidth="1"/>
+    <col min="44" max="44" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" ht="36">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3995,7 +4026,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" ht="15.6" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -4113,7 +4144,7 @@
       <c r="AQ2" s="3"/>
       <c r="AR2" s="4"/>
     </row>
-    <row r="3" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" ht="15.6" customHeight="1">
       <c r="A3" s="2">
         <v>0</v>
       </c>
@@ -4233,7 +4264,7 @@
       <c r="AQ3" s="3"/>
       <c r="AR3" s="4"/>
     </row>
-    <row r="4" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" ht="15.6" customHeight="1">
       <c r="A4" s="2">
         <v>0</v>
       </c>
@@ -4353,7 +4384,7 @@
       <c r="AQ4" s="3"/>
       <c r="AR4" s="4"/>
     </row>
-    <row r="5" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A5" s="2">
         <v>0</v>
       </c>
@@ -4473,7 +4504,7 @@
       <c r="AQ5" s="3"/>
       <c r="AR5" s="4"/>
     </row>
-    <row r="6" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" ht="21.6" customHeight="1">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -4593,7 +4624,7 @@
       <c r="AQ6" s="3"/>
       <c r="AR6" s="4"/>
     </row>
-    <row r="7" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" ht="15.6" customHeight="1">
       <c r="A7" s="2">
         <v>0</v>
       </c>
@@ -4715,7 +4746,7 @@
       <c r="AQ7" s="3"/>
       <c r="AR7" s="4"/>
     </row>
-    <row r="8" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" ht="15.6" customHeight="1">
       <c r="A8" s="2">
         <v>0</v>
       </c>
@@ -4837,7 +4868,7 @@
       <c r="AQ8" s="3"/>
       <c r="AR8" s="4"/>
     </row>
-    <row r="9" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" ht="15.6" customHeight="1">
       <c r="A9" s="2">
         <v>0</v>
       </c>
@@ -4957,7 +4988,7 @@
       <c r="AQ9" s="3"/>
       <c r="AR9" s="4"/>
     </row>
-    <row r="10" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" ht="15.6" customHeight="1">
       <c r="A10" s="2">
         <v>0</v>
       </c>
@@ -5077,7 +5108,7 @@
       <c r="AQ10" s="3"/>
       <c r="AR10" s="4"/>
     </row>
-    <row r="11" spans="1:44" ht="39.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" ht="39.6" customHeight="1">
       <c r="A11" s="2">
         <v>0</v>
       </c>
@@ -5197,7 +5228,7 @@
       <c r="AQ11" s="3"/>
       <c r="AR11" s="4"/>
     </row>
-    <row r="12" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" ht="15.6" customHeight="1">
       <c r="A12" s="2">
         <v>0</v>
       </c>
@@ -5317,7 +5348,7 @@
       <c r="AQ12" s="3"/>
       <c r="AR12" s="4"/>
     </row>
-    <row r="13" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" ht="21.6" customHeight="1">
       <c r="A13" s="2">
         <v>0</v>
       </c>
@@ -5437,7 +5468,7 @@
       <c r="AQ13" s="3"/>
       <c r="AR13" s="4"/>
     </row>
-    <row r="14" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" ht="21.6" customHeight="1">
       <c r="A14" s="2">
         <v>0</v>
       </c>
@@ -5559,7 +5590,7 @@
       <c r="AQ14" s="3"/>
       <c r="AR14" s="4"/>
     </row>
-    <row r="15" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" ht="21.6" customHeight="1">
       <c r="A15" s="2">
         <v>0</v>
       </c>
@@ -5681,7 +5712,7 @@
       <c r="AQ15" s="3"/>
       <c r="AR15" s="4"/>
     </row>
-    <row r="16" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" ht="15.6" customHeight="1">
       <c r="A16" s="2">
         <v>0</v>
       </c>
@@ -5801,7 +5832,7 @@
       <c r="AQ16" s="3"/>
       <c r="AR16" s="4"/>
     </row>
-    <row r="17" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" ht="15.6" customHeight="1">
       <c r="A17" s="2">
         <v>0</v>
       </c>
@@ -5921,7 +5952,7 @@
       <c r="AQ17" s="3"/>
       <c r="AR17" s="4"/>
     </row>
-    <row r="18" spans="1:44" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" ht="27.6" customHeight="1">
       <c r="A18" s="2">
         <v>0</v>
       </c>
@@ -6041,7 +6072,7 @@
       <c r="AQ18" s="3"/>
       <c r="AR18" s="4"/>
     </row>
-    <row r="19" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" ht="15.6" customHeight="1">
       <c r="A19" s="2">
         <v>0</v>
       </c>
@@ -6159,7 +6190,7 @@
       <c r="AQ19" s="3"/>
       <c r="AR19" s="4"/>
     </row>
-    <row r="20" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" ht="15.6" customHeight="1">
       <c r="A20" s="2">
         <v>0</v>
       </c>
@@ -6279,7 +6310,7 @@
       <c r="AQ20" s="3"/>
       <c r="AR20" s="4"/>
     </row>
-    <row r="21" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" ht="15.6" customHeight="1">
       <c r="A21" s="2">
         <v>0</v>
       </c>
@@ -6401,7 +6432,7 @@
       <c r="AQ21" s="3"/>
       <c r="AR21" s="4"/>
     </row>
-    <row r="22" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" ht="15.6" customHeight="1">
       <c r="A22" s="2">
         <v>0</v>
       </c>
@@ -6519,7 +6550,7 @@
       <c r="AQ22" s="3"/>
       <c r="AR22" s="4"/>
     </row>
-    <row r="23" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" ht="15.6" customHeight="1">
       <c r="A23" s="2">
         <v>0</v>
       </c>
@@ -6637,7 +6668,7 @@
       <c r="AQ23" s="3"/>
       <c r="AR23" s="4"/>
     </row>
-    <row r="24" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" ht="21.6" customHeight="1">
       <c r="A24" s="2">
         <v>0</v>
       </c>
@@ -6757,7 +6788,7 @@
       <c r="AQ24" s="3"/>
       <c r="AR24" s="4"/>
     </row>
-    <row r="25" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A25" s="2">
         <v>0</v>
       </c>
@@ -6875,7 +6906,7 @@
       <c r="AQ25" s="3"/>
       <c r="AR25" s="4"/>
     </row>
-    <row r="26" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" ht="21.6" customHeight="1">
       <c r="A26" s="2">
         <v>0</v>
       </c>
@@ -6993,7 +7024,7 @@
       <c r="AQ26" s="3"/>
       <c r="AR26" s="4"/>
     </row>
-    <row r="27" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" ht="21.6" customHeight="1">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -7113,7 +7144,7 @@
       <c r="AQ27" s="3"/>
       <c r="AR27" s="4"/>
     </row>
-    <row r="28" spans="1:44" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" ht="30.6" customHeight="1">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -7233,7 +7264,7 @@
       <c r="AQ28" s="3"/>
       <c r="AR28" s="4"/>
     </row>
-    <row r="29" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" ht="15.6" customHeight="1">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -7353,7 +7384,7 @@
       <c r="AQ29" s="3"/>
       <c r="AR29" s="4"/>
     </row>
-    <row r="30" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A30" s="2">
         <v>0</v>
       </c>
@@ -7473,7 +7504,7 @@
       <c r="AQ30" s="3"/>
       <c r="AR30" s="4"/>
     </row>
-    <row r="31" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" ht="15.6" customHeight="1">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -7593,7 +7624,7 @@
       <c r="AQ31" s="3"/>
       <c r="AR31" s="4"/>
     </row>
-    <row r="32" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A32" s="2">
         <v>0</v>
       </c>
@@ -7711,7 +7742,7 @@
       <c r="AQ32" s="3"/>
       <c r="AR32" s="4"/>
     </row>
-    <row r="33" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" ht="15.6" customHeight="1">
       <c r="A33" s="2">
         <v>0</v>
       </c>
@@ -7831,7 +7862,7 @@
       <c r="AQ33" s="3"/>
       <c r="AR33" s="4"/>
     </row>
-    <row r="34" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" ht="15.6" customHeight="1">
       <c r="A34" s="2">
         <v>0</v>
       </c>
@@ -7951,7 +7982,7 @@
       <c r="AQ34" s="3"/>
       <c r="AR34" s="4"/>
     </row>
-    <row r="35" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" ht="15.6" customHeight="1">
       <c r="A35" s="2">
         <v>0</v>
       </c>
@@ -8069,7 +8100,7 @@
       <c r="AQ35" s="3"/>
       <c r="AR35" s="4"/>
     </row>
-    <row r="36" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" ht="15.6" customHeight="1">
       <c r="A36" s="2">
         <v>0</v>
       </c>
@@ -8187,7 +8218,7 @@
       <c r="AQ36" s="3"/>
       <c r="AR36" s="4"/>
     </row>
-    <row r="37" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" ht="15.6" customHeight="1">
       <c r="A37" s="2">
         <v>0</v>
       </c>
@@ -8307,7 +8338,7 @@
       <c r="AQ37" s="3"/>
       <c r="AR37" s="4"/>
     </row>
-    <row r="38" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" ht="15.6" customHeight="1">
       <c r="A38" s="2">
         <v>0</v>
       </c>
@@ -8429,7 +8460,7 @@
       <c r="AQ38" s="3"/>
       <c r="AR38" s="4"/>
     </row>
-    <row r="39" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" ht="21.6" customHeight="1">
       <c r="A39" s="2">
         <v>0</v>
       </c>
@@ -8551,7 +8582,7 @@
       <c r="AQ39" s="3"/>
       <c r="AR39" s="4"/>
     </row>
-    <row r="40" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" ht="15.6" customHeight="1">
       <c r="A40" s="2">
         <v>0</v>
       </c>
@@ -8673,7 +8704,7 @@
       <c r="AQ40" s="3"/>
       <c r="AR40" s="4"/>
     </row>
-    <row r="41" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A41" s="2">
         <v>0</v>
       </c>
@@ -8793,7 +8824,7 @@
       <c r="AQ41" s="3"/>
       <c r="AR41" s="4"/>
     </row>
-    <row r="42" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" ht="15.6" customHeight="1">
       <c r="A42" s="2">
         <v>0</v>
       </c>
@@ -8915,7 +8946,7 @@
       <c r="AQ42" s="3"/>
       <c r="AR42" s="4"/>
     </row>
-    <row r="43" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" ht="15.6" customHeight="1">
       <c r="A43" s="2">
         <v>0</v>
       </c>
@@ -9033,7 +9064,7 @@
       <c r="AQ43" s="3"/>
       <c r="AR43" s="4"/>
     </row>
-    <row r="44" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" ht="21.6" customHeight="1">
       <c r="A44" s="2">
         <v>0</v>
       </c>
@@ -9155,7 +9186,7 @@
       <c r="AQ44" s="3"/>
       <c r="AR44" s="4"/>
     </row>
-    <row r="45" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" ht="21.6" customHeight="1">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -9277,7 +9308,7 @@
       <c r="AQ45" s="3"/>
       <c r="AR45" s="4"/>
     </row>
-    <row r="46" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" ht="21.6" customHeight="1">
       <c r="A46" s="2">
         <v>0</v>
       </c>
@@ -9399,7 +9430,7 @@
       <c r="AQ46" s="3"/>
       <c r="AR46" s="4"/>
     </row>
-    <row r="47" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" ht="21.6" customHeight="1">
       <c r="A47" s="2">
         <v>0</v>
       </c>
@@ -9521,7 +9552,7 @@
       <c r="AQ47" s="3"/>
       <c r="AR47" s="4"/>
     </row>
-    <row r="48" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" ht="21.6" customHeight="1">
       <c r="A48" s="2">
         <v>0</v>
       </c>
@@ -9643,7 +9674,7 @@
       <c r="AQ48" s="3"/>
       <c r="AR48" s="4"/>
     </row>
-    <row r="49" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" ht="21.6" customHeight="1">
       <c r="A49" s="2">
         <v>0</v>
       </c>
@@ -9765,7 +9796,7 @@
       <c r="AQ49" s="3"/>
       <c r="AR49" s="4"/>
     </row>
-    <row r="50" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" ht="15.6" customHeight="1">
       <c r="A50" s="2">
         <v>0</v>
       </c>
@@ -9885,7 +9916,7 @@
       <c r="AQ50" s="3"/>
       <c r="AR50" s="4"/>
     </row>
-    <row r="51" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" ht="15.6" customHeight="1">
       <c r="A51" s="2">
         <v>0</v>
       </c>
@@ -10003,7 +10034,7 @@
       <c r="AQ51" s="3"/>
       <c r="AR51" s="4"/>
     </row>
-    <row r="52" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" ht="15.6" customHeight="1">
       <c r="A52" s="2">
         <v>0</v>
       </c>
@@ -10121,7 +10152,7 @@
       <c r="AQ52" s="3"/>
       <c r="AR52" s="4"/>
     </row>
-    <row r="53" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" ht="15.6" customHeight="1">
       <c r="A53" s="2">
         <v>0</v>
       </c>
@@ -10241,7 +10272,7 @@
       <c r="AQ53" s="3"/>
       <c r="AR53" s="4"/>
     </row>
-    <row r="54" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" ht="15.6" customHeight="1">
       <c r="A54" s="2">
         <v>0</v>
       </c>
@@ -10361,7 +10392,7 @@
       <c r="AQ54" s="3"/>
       <c r="AR54" s="4"/>
     </row>
-    <row r="55" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" ht="15.6" customHeight="1">
       <c r="A55" s="2">
         <v>0</v>
       </c>
@@ -10481,7 +10512,7 @@
       <c r="AQ55" s="3"/>
       <c r="AR55" s="4"/>
     </row>
-    <row r="56" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" ht="15.6" customHeight="1">
       <c r="A56" s="2">
         <v>0</v>
       </c>
@@ -10601,7 +10632,7 @@
       <c r="AQ56" s="3"/>
       <c r="AR56" s="4"/>
     </row>
-    <row r="57" spans="1:44" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" ht="30.6" customHeight="1">
       <c r="A57" s="2">
         <v>0</v>
       </c>
@@ -10719,7 +10750,7 @@
       <c r="AQ57" s="3"/>
       <c r="AR57" s="4"/>
     </row>
-    <row r="58" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" ht="15.6" customHeight="1">
       <c r="A58" s="2">
         <v>0</v>
       </c>
@@ -10839,7 +10870,7 @@
       <c r="AQ58" s="3"/>
       <c r="AR58" s="4"/>
     </row>
-    <row r="59" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" ht="15.6" customHeight="1">
       <c r="A59" s="2">
         <v>0</v>
       </c>
@@ -10959,7 +10990,7 @@
       <c r="AQ59" s="3"/>
       <c r="AR59" s="4"/>
     </row>
-    <row r="60" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44" ht="15.6" customHeight="1">
       <c r="A60" s="2">
         <v>0</v>
       </c>
@@ -11079,7 +11110,7 @@
       <c r="AQ60" s="3"/>
       <c r="AR60" s="4"/>
     </row>
-    <row r="61" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" ht="15.6" customHeight="1">
       <c r="A61" s="2">
         <v>0</v>
       </c>
@@ -11199,7 +11230,7 @@
       <c r="AQ61" s="3"/>
       <c r="AR61" s="4"/>
     </row>
-    <row r="62" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:44" ht="15.6" customHeight="1">
       <c r="A62" s="2">
         <v>0</v>
       </c>
@@ -11317,7 +11348,7 @@
       <c r="AQ62" s="3"/>
       <c r="AR62" s="4"/>
     </row>
-    <row r="63" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44" ht="15.6" customHeight="1">
       <c r="A63" s="2">
         <v>0</v>
       </c>
@@ -11437,7 +11468,7 @@
       <c r="AQ63" s="3"/>
       <c r="AR63" s="4"/>
     </row>
-    <row r="64" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" ht="15.6" customHeight="1">
       <c r="A64" s="2">
         <v>0</v>
       </c>
@@ -11555,7 +11586,7 @@
       <c r="AQ64" s="3"/>
       <c r="AR64" s="4"/>
     </row>
-    <row r="65" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:44" ht="15.6" customHeight="1">
       <c r="A65" s="2">
         <v>0</v>
       </c>
@@ -11675,7 +11706,7 @@
       <c r="AQ65" s="3"/>
       <c r="AR65" s="4"/>
     </row>
-    <row r="66" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:44" ht="21.6" customHeight="1">
       <c r="A66" s="2">
         <v>0</v>
       </c>
@@ -11793,7 +11824,7 @@
       <c r="AQ66" s="3"/>
       <c r="AR66" s="4"/>
     </row>
-    <row r="67" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A67" s="2">
         <v>0</v>
       </c>
@@ -11913,7 +11944,7 @@
       <c r="AQ67" s="3"/>
       <c r="AR67" s="4"/>
     </row>
-    <row r="68" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:44" ht="21.6" customHeight="1">
       <c r="A68" s="2">
         <v>0</v>
       </c>
@@ -12031,7 +12062,7 @@
       <c r="AQ68" s="3"/>
       <c r="AR68" s="4"/>
     </row>
-    <row r="69" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:44" ht="21.6" customHeight="1">
       <c r="A69" s="2">
         <v>0</v>
       </c>
@@ -12153,7 +12184,7 @@
       <c r="AQ69" s="3"/>
       <c r="AR69" s="4"/>
     </row>
-    <row r="70" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:44" ht="15.6" customHeight="1">
       <c r="A70" s="2">
         <v>0</v>
       </c>
@@ -12275,7 +12306,7 @@
       <c r="AQ70" s="3"/>
       <c r="AR70" s="4"/>
     </row>
-    <row r="71" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:44" ht="15.6" customHeight="1">
       <c r="A71" s="2">
         <v>0</v>
       </c>
@@ -12393,7 +12424,7 @@
       <c r="AQ71" s="3"/>
       <c r="AR71" s="4"/>
     </row>
-    <row r="72" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A72" s="2">
         <v>0</v>
       </c>
@@ -12515,7 +12546,7 @@
       <c r="AQ72" s="3"/>
       <c r="AR72" s="4"/>
     </row>
-    <row r="73" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:44" ht="15.6" customHeight="1">
       <c r="A73" s="2">
         <v>0</v>
       </c>
@@ -12635,7 +12666,7 @@
       <c r="AQ73" s="3"/>
       <c r="AR73" s="4"/>
     </row>
-    <row r="74" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:44" ht="21.6" customHeight="1">
       <c r="A74" s="2">
         <v>0</v>
       </c>
@@ -12755,7 +12786,7 @@
       <c r="AQ74" s="3"/>
       <c r="AR74" s="4"/>
     </row>
-    <row r="75" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:44" ht="15.6" customHeight="1">
       <c r="A75" s="2">
         <v>0</v>
       </c>
@@ -12875,7 +12906,7 @@
       <c r="AQ75" s="3"/>
       <c r="AR75" s="4"/>
     </row>
-    <row r="76" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:44" ht="15.6" customHeight="1">
       <c r="A76" s="2">
         <v>0</v>
       </c>
@@ -12993,7 +13024,7 @@
       <c r="AQ76" s="3"/>
       <c r="AR76" s="4"/>
     </row>
-    <row r="77" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:44" ht="15.6" customHeight="1">
       <c r="A77" s="2">
         <v>0</v>
       </c>
@@ -13111,7 +13142,7 @@
       <c r="AQ77" s="3"/>
       <c r="AR77" s="4"/>
     </row>
-    <row r="78" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:44" ht="15.6" customHeight="1">
       <c r="A78" s="2">
         <v>0</v>
       </c>
@@ -13229,7 +13260,7 @@
       <c r="AQ78" s="3"/>
       <c r="AR78" s="4"/>
     </row>
-    <row r="79" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:44" ht="15.6" customHeight="1">
       <c r="A79" s="2">
         <v>0</v>
       </c>
@@ -13347,7 +13378,7 @@
       <c r="AQ79" s="3"/>
       <c r="AR79" s="4"/>
     </row>
-    <row r="80" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:44" ht="15.6" customHeight="1">
       <c r="A80" s="2">
         <v>0</v>
       </c>
@@ -13465,7 +13496,7 @@
       <c r="AQ80" s="3"/>
       <c r="AR80" s="4"/>
     </row>
-    <row r="81" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:44" ht="15.6" customHeight="1">
       <c r="A81" s="2">
         <v>0</v>
       </c>
@@ -13583,7 +13614,7 @@
       <c r="AQ81" s="3"/>
       <c r="AR81" s="4"/>
     </row>
-    <row r="82" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:44" ht="21.6" customHeight="1">
       <c r="A82" s="2">
         <v>0</v>
       </c>
@@ -13701,7 +13732,7 @@
       <c r="AQ82" s="3"/>
       <c r="AR82" s="4"/>
     </row>
-    <row r="83" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:44" ht="15.6" customHeight="1">
       <c r="A83" s="2">
         <v>0</v>
       </c>
@@ -13821,7 +13852,7 @@
       <c r="AQ83" s="3"/>
       <c r="AR83" s="4"/>
     </row>
-    <row r="84" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:44" ht="21.6" customHeight="1">
       <c r="A84" s="2">
         <v>0</v>
       </c>
@@ -13939,7 +13970,7 @@
       <c r="AQ84" s="3"/>
       <c r="AR84" s="4"/>
     </row>
-    <row r="85" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A85" s="2">
         <v>0</v>
       </c>
@@ -14059,7 +14090,7 @@
       <c r="AQ85" s="3"/>
       <c r="AR85" s="4"/>
     </row>
-    <row r="86" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:44" ht="21.6" customHeight="1">
       <c r="A86" s="2">
         <v>0</v>
       </c>
@@ -14181,7 +14212,7 @@
       <c r="AQ86" s="3"/>
       <c r="AR86" s="4"/>
     </row>
-    <row r="87" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:44" ht="15.6" customHeight="1">
       <c r="A87" s="2">
         <v>0</v>
       </c>
@@ -14303,7 +14334,7 @@
       <c r="AQ87" s="3"/>
       <c r="AR87" s="4"/>
     </row>
-    <row r="88" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A88" s="2">
         <v>0</v>
       </c>
@@ -14423,7 +14454,7 @@
       <c r="AQ88" s="3"/>
       <c r="AR88" s="4"/>
     </row>
-    <row r="89" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:44" ht="15.6" customHeight="1">
       <c r="A89" s="2">
         <v>0</v>
       </c>
@@ -14541,7 +14572,7 @@
       <c r="AQ89" s="3"/>
       <c r="AR89" s="4"/>
     </row>
-    <row r="90" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:44" ht="15.6" customHeight="1">
       <c r="A90" s="2">
         <v>0</v>
       </c>
@@ -14665,7 +14696,7 @@
       <c r="AQ90" s="3"/>
       <c r="AR90" s="4"/>
     </row>
-    <row r="91" spans="1:44" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:44" ht="30.6" customHeight="1">
       <c r="A91" s="2">
         <v>0</v>
       </c>
@@ -14789,7 +14820,7 @@
       <c r="AQ91" s="3"/>
       <c r="AR91" s="4"/>
     </row>
-    <row r="92" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:44" ht="15.6" customHeight="1">
       <c r="A92" s="2">
         <v>0</v>
       </c>
@@ -14911,7 +14942,7 @@
       <c r="AQ92" s="3"/>
       <c r="AR92" s="4"/>
     </row>
-    <row r="93" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:44" ht="15.6" customHeight="1">
       <c r="A93" s="2">
         <v>0</v>
       </c>
@@ -15035,7 +15066,7 @@
       <c r="AQ93" s="3"/>
       <c r="AR93" s="4"/>
     </row>
-    <row r="94" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:44" ht="15.6" customHeight="1">
       <c r="A94" s="2">
         <v>0</v>
       </c>
@@ -15157,7 +15188,7 @@
       <c r="AQ94" s="3"/>
       <c r="AR94" s="4"/>
     </row>
-    <row r="95" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:44" ht="15.6" customHeight="1">
       <c r="A95" s="2">
         <v>0</v>
       </c>
@@ -15281,7 +15312,7 @@
       <c r="AQ95" s="3"/>
       <c r="AR95" s="4"/>
     </row>
-    <row r="96" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:44" ht="15.6" customHeight="1">
       <c r="A96" s="2">
         <v>0</v>
       </c>
@@ -15405,7 +15436,7 @@
       <c r="AQ96" s="3"/>
       <c r="AR96" s="4"/>
     </row>
-    <row r="97" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:44" ht="15.6" customHeight="1">
       <c r="A97" s="2">
         <v>0</v>
       </c>
@@ -15527,7 +15558,7 @@
       <c r="AQ97" s="3"/>
       <c r="AR97" s="4"/>
     </row>
-    <row r="98" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:44" ht="21.6" customHeight="1">
       <c r="A98" s="2">
         <v>0</v>
       </c>
@@ -15653,7 +15684,7 @@
       <c r="AQ98" s="3"/>
       <c r="AR98" s="4"/>
     </row>
-    <row r="99" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:44" ht="15.6" customHeight="1">
       <c r="A99" s="2">
         <v>0</v>
       </c>
@@ -15775,7 +15806,7 @@
       <c r="AQ99" s="3"/>
       <c r="AR99" s="4"/>
     </row>
-    <row r="100" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:44" ht="21.6" customHeight="1">
       <c r="A100" s="2">
         <v>0</v>
       </c>
@@ -15897,7 +15928,7 @@
       <c r="AQ100" s="3"/>
       <c r="AR100" s="4"/>
     </row>
-    <row r="101" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:44" ht="21.6" customHeight="1">
       <c r="A101" s="2">
         <v>0</v>
       </c>
@@ -16019,7 +16050,7 @@
       <c r="AQ101" s="3"/>
       <c r="AR101" s="4"/>
     </row>
-    <row r="102" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:44" ht="15.6" customHeight="1">
       <c r="A102" s="2">
         <v>0</v>
       </c>
@@ -16143,7 +16174,7 @@
       <c r="AQ102" s="3"/>
       <c r="AR102" s="4"/>
     </row>
-    <row r="103" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:44" ht="15.6" customHeight="1">
       <c r="A103" s="2">
         <v>0</v>
       </c>
@@ -16267,7 +16298,7 @@
       <c r="AQ103" s="3"/>
       <c r="AR103" s="4"/>
     </row>
-    <row r="104" spans="1:44" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:44" ht="30.6" customHeight="1">
       <c r="A104" s="2">
         <v>0</v>
       </c>
@@ -16389,7 +16420,7 @@
       <c r="AQ104" s="3"/>
       <c r="AR104" s="4"/>
     </row>
-    <row r="105" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:44" ht="15.6" customHeight="1">
       <c r="A105" s="2">
         <v>0</v>
       </c>
@@ -16511,7 +16542,7 @@
       <c r="AQ105" s="3"/>
       <c r="AR105" s="4"/>
     </row>
-    <row r="106" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:44" ht="15.6" customHeight="1">
       <c r="A106" s="2">
         <v>0</v>
       </c>
@@ -16635,7 +16666,7 @@
       <c r="AQ106" s="3"/>
       <c r="AR106" s="4"/>
     </row>
-    <row r="107" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:44" ht="15.6" customHeight="1">
       <c r="A107" s="2">
         <v>0</v>
       </c>
@@ -16759,7 +16790,7 @@
       <c r="AQ107" s="3"/>
       <c r="AR107" s="4"/>
     </row>
-    <row r="108" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:44" ht="21.6" customHeight="1">
       <c r="A108" s="2">
         <v>0</v>
       </c>
@@ -16881,7 +16912,7 @@
       <c r="AQ108" s="3"/>
       <c r="AR108" s="4"/>
     </row>
-    <row r="109" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:44" ht="15.6" customHeight="1">
       <c r="A109" s="2">
         <v>0</v>
       </c>
@@ -17005,7 +17036,7 @@
       <c r="AQ109" s="3"/>
       <c r="AR109" s="4"/>
     </row>
-    <row r="110" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:44" ht="15.6" customHeight="1">
       <c r="A110" s="2">
         <v>0</v>
       </c>
@@ -17129,7 +17160,7 @@
       <c r="AQ110" s="3"/>
       <c r="AR110" s="4"/>
     </row>
-    <row r="111" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:44" ht="15.6" customHeight="1">
       <c r="A111" s="2">
         <v>0</v>
       </c>
@@ -17253,7 +17284,7 @@
       <c r="AQ111" s="3"/>
       <c r="AR111" s="4"/>
     </row>
-    <row r="112" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:44" ht="21.6" customHeight="1">
       <c r="A112" s="2">
         <v>0</v>
       </c>
@@ -17375,7 +17406,7 @@
       <c r="AQ112" s="3"/>
       <c r="AR112" s="4"/>
     </row>
-    <row r="113" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:44" ht="21.6" customHeight="1">
       <c r="A113" s="2">
         <v>0</v>
       </c>
@@ -17499,7 +17530,7 @@
       <c r="AQ113" s="3"/>
       <c r="AR113" s="4"/>
     </row>
-    <row r="114" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:44" ht="15.6" customHeight="1">
       <c r="A114" s="2">
         <v>0</v>
       </c>
@@ -17623,7 +17654,7 @@
       <c r="AQ114" s="3"/>
       <c r="AR114" s="4"/>
     </row>
-    <row r="115" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:44" ht="15.6" customHeight="1">
       <c r="A115" s="2">
         <v>0</v>
       </c>
@@ -17745,7 +17776,7 @@
       <c r="AQ115" s="3"/>
       <c r="AR115" s="4"/>
     </row>
-    <row r="116" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:44" ht="15.6" customHeight="1">
       <c r="A116" s="2">
         <v>0</v>
       </c>
@@ -17869,7 +17900,7 @@
       <c r="AQ116" s="3"/>
       <c r="AR116" s="4"/>
     </row>
-    <row r="117" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:44" ht="15.6" customHeight="1">
       <c r="A117" s="2">
         <v>0</v>
       </c>
@@ -17993,7 +18024,7 @@
       <c r="AQ117" s="3"/>
       <c r="AR117" s="4"/>
     </row>
-    <row r="118" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:44" ht="15.6" customHeight="1">
       <c r="A118" s="2">
         <v>0</v>
       </c>
@@ -18117,7 +18148,7 @@
       <c r="AQ118" s="3"/>
       <c r="AR118" s="4"/>
     </row>
-    <row r="119" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:44" ht="21.6" customHeight="1">
       <c r="A119" s="2">
         <v>0</v>
       </c>
@@ -18243,7 +18274,7 @@
       <c r="AQ119" s="3"/>
       <c r="AR119" s="4"/>
     </row>
-    <row r="120" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A120" s="2">
         <v>0</v>
       </c>
@@ -18367,7 +18398,7 @@
       <c r="AQ120" s="3"/>
       <c r="AR120" s="4"/>
     </row>
-    <row r="121" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:44" ht="15.6" customHeight="1">
       <c r="A121" s="2">
         <v>0</v>
       </c>
@@ -18491,7 +18522,7 @@
       <c r="AQ121" s="3"/>
       <c r="AR121" s="4"/>
     </row>
-    <row r="122" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:44" ht="21.6" customHeight="1">
       <c r="A122" s="2">
         <v>0</v>
       </c>
@@ -18615,7 +18646,7 @@
       <c r="AQ122" s="3"/>
       <c r="AR122" s="4"/>
     </row>
-    <row r="123" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:44" ht="21.6" customHeight="1">
       <c r="A123" s="2">
         <v>0</v>
       </c>
@@ -18741,7 +18772,7 @@
       <c r="AQ123" s="3"/>
       <c r="AR123" s="4"/>
     </row>
-    <row r="124" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:44" ht="21.6" customHeight="1">
       <c r="A124" s="2">
         <v>0</v>
       </c>
@@ -18863,7 +18894,7 @@
       <c r="AQ124" s="3"/>
       <c r="AR124" s="4"/>
     </row>
-    <row r="125" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:44" ht="21.6" customHeight="1">
       <c r="A125" s="2">
         <v>0</v>
       </c>
@@ -18987,7 +19018,7 @@
       <c r="AQ125" s="3"/>
       <c r="AR125" s="4"/>
     </row>
-    <row r="126" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:44" ht="15.6" customHeight="1">
       <c r="A126" s="2">
         <v>0</v>
       </c>
@@ -19111,7 +19142,7 @@
       <c r="AQ126" s="3"/>
       <c r="AR126" s="4"/>
     </row>
-    <row r="127" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:44" ht="15.6" customHeight="1">
       <c r="A127" s="2">
         <v>0</v>
       </c>
@@ -19235,7 +19266,7 @@
       <c r="AQ127" s="3"/>
       <c r="AR127" s="4"/>
     </row>
-    <row r="128" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:44" ht="15.6" customHeight="1">
       <c r="A128" s="2">
         <v>0</v>
       </c>
@@ -19359,7 +19390,7 @@
       <c r="AQ128" s="3"/>
       <c r="AR128" s="4"/>
     </row>
-    <row r="129" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A129" s="2">
         <v>0</v>
       </c>
@@ -19481,7 +19512,7 @@
       <c r="AQ129" s="3"/>
       <c r="AR129" s="4"/>
     </row>
-    <row r="130" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:44" ht="15.6" customHeight="1">
       <c r="A130" s="2">
         <v>0</v>
       </c>
@@ -19605,7 +19636,7 @@
       <c r="AQ130" s="3"/>
       <c r="AR130" s="4"/>
     </row>
-    <row r="131" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:44" ht="15.6" customHeight="1">
       <c r="A131" s="2">
         <v>0</v>
       </c>
@@ -19727,7 +19758,7 @@
       <c r="AQ131" s="3"/>
       <c r="AR131" s="4"/>
     </row>
-    <row r="132" spans="1:44" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:44" ht="30.6" customHeight="1">
       <c r="A132" s="2">
         <v>0</v>
       </c>
@@ -19849,7 +19880,7 @@
       <c r="AQ132" s="3"/>
       <c r="AR132" s="4"/>
     </row>
-    <row r="133" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:44" ht="15.6" customHeight="1">
       <c r="A133" s="2">
         <v>0</v>
       </c>
@@ -19971,7 +20002,7 @@
       <c r="AQ133" s="3"/>
       <c r="AR133" s="4"/>
     </row>
-    <row r="134" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:44" ht="15.6" customHeight="1">
       <c r="A134" s="2">
         <v>0</v>
       </c>
@@ -20097,7 +20128,7 @@
       <c r="AQ134" s="3"/>
       <c r="AR134" s="4"/>
     </row>
-    <row r="135" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:44" ht="15.6" customHeight="1">
       <c r="A135" s="2">
         <v>0</v>
       </c>
@@ -20221,7 +20252,7 @@
       <c r="AQ135" s="3"/>
       <c r="AR135" s="4"/>
     </row>
-    <row r="136" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:44" ht="15.6" customHeight="1">
       <c r="A136" s="2">
         <v>0</v>
       </c>
@@ -20345,7 +20376,7 @@
       <c r="AQ136" s="3"/>
       <c r="AR136" s="4"/>
     </row>
-    <row r="137" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:44" ht="21.6" customHeight="1">
       <c r="A137" s="2">
         <v>0</v>
       </c>
@@ -20469,7 +20500,7 @@
       <c r="AQ137" s="3"/>
       <c r="AR137" s="4"/>
     </row>
-    <row r="138" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:44" ht="15.6" customHeight="1">
       <c r="A138" s="2">
         <v>0</v>
       </c>
@@ -20593,7 +20624,7 @@
       <c r="AQ138" s="3"/>
       <c r="AR138" s="4"/>
     </row>
-    <row r="139" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:44" ht="15.6" customHeight="1">
       <c r="A139" s="2">
         <v>0</v>
       </c>
@@ -20717,7 +20748,7 @@
       <c r="AQ139" s="3"/>
       <c r="AR139" s="4"/>
     </row>
-    <row r="140" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:44" ht="21.6" customHeight="1">
       <c r="A140" s="2">
         <v>0</v>
       </c>
@@ -20839,7 +20870,7 @@
       <c r="AQ140" s="3"/>
       <c r="AR140" s="4"/>
     </row>
-    <row r="141" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:44" ht="15.6" customHeight="1">
       <c r="A141" s="2">
         <v>0</v>
       </c>
@@ -20963,7 +20994,7 @@
       <c r="AQ141" s="3"/>
       <c r="AR141" s="4"/>
     </row>
-    <row r="142" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:44" ht="21.6" customHeight="1">
       <c r="A142" s="2">
         <v>0</v>
       </c>
@@ -21087,7 +21118,7 @@
       <c r="AQ142" s="3"/>
       <c r="AR142" s="4"/>
     </row>
-    <row r="143" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:44" ht="15.6" customHeight="1">
       <c r="A143" s="2">
         <v>0</v>
       </c>
@@ -21211,7 +21242,7 @@
       <c r="AQ143" s="3"/>
       <c r="AR143" s="4"/>
     </row>
-    <row r="144" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A144" s="2">
         <v>0</v>
       </c>
@@ -21333,7 +21364,7 @@
       <c r="AQ144" s="3"/>
       <c r="AR144" s="4"/>
     </row>
-    <row r="145" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:44" ht="21.6" customHeight="1">
       <c r="A145" s="2">
         <v>0</v>
       </c>
@@ -21455,7 +21486,7 @@
       <c r="AQ145" s="3"/>
       <c r="AR145" s="4"/>
     </row>
-    <row r="146" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:44" ht="15.6" customHeight="1">
       <c r="A146" s="2">
         <v>0</v>
       </c>
@@ -21577,7 +21608,7 @@
       <c r="AQ146" s="3"/>
       <c r="AR146" s="4"/>
     </row>
-    <row r="147" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A147" s="2">
         <v>0</v>
       </c>
@@ -21699,7 +21730,7 @@
       <c r="AQ147" s="3"/>
       <c r="AR147" s="4"/>
     </row>
-    <row r="148" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:44" ht="21.6" customHeight="1">
       <c r="A148" s="2">
         <v>0</v>
       </c>
@@ -21821,7 +21852,7 @@
       <c r="AQ148" s="3"/>
       <c r="AR148" s="4"/>
     </row>
-    <row r="149" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:44" ht="21.6" customHeight="1">
       <c r="A149" s="2">
         <v>0</v>
       </c>
@@ -21947,7 +21978,7 @@
       <c r="AQ149" s="3"/>
       <c r="AR149" s="4"/>
     </row>
-    <row r="150" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:44" ht="21.6" customHeight="1">
       <c r="A150" s="2">
         <v>0</v>
       </c>
@@ -22069,7 +22100,7 @@
       <c r="AQ150" s="3"/>
       <c r="AR150" s="4"/>
     </row>
-    <row r="151" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:44" ht="15.6" customHeight="1">
       <c r="A151" s="2">
         <v>0</v>
       </c>
@@ -22193,7 +22224,7 @@
       <c r="AQ151" s="3"/>
       <c r="AR151" s="4"/>
     </row>
-    <row r="152" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:44" ht="21.6" customHeight="1">
       <c r="A152" s="2">
         <v>0</v>
       </c>
@@ -22315,7 +22346,7 @@
       <c r="AQ152" s="3"/>
       <c r="AR152" s="4"/>
     </row>
-    <row r="153" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A153" s="2">
         <v>0</v>
       </c>
@@ -22437,7 +22468,7 @@
       <c r="AQ153" s="3"/>
       <c r="AR153" s="4"/>
     </row>
-    <row r="154" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:44" ht="21.6" customHeight="1">
       <c r="A154" s="2">
         <v>0</v>
       </c>
@@ -22559,7 +22590,7 @@
       <c r="AQ154" s="3"/>
       <c r="AR154" s="4"/>
     </row>
-    <row r="155" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:44" ht="21.6" customHeight="1">
       <c r="A155" s="2">
         <v>0</v>
       </c>
@@ -22681,7 +22712,7 @@
       <c r="AQ155" s="3"/>
       <c r="AR155" s="4"/>
     </row>
-    <row r="156" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:44" ht="21.6" customHeight="1">
       <c r="A156" s="2">
         <v>0</v>
       </c>
@@ -22803,7 +22834,7 @@
       <c r="AQ156" s="3"/>
       <c r="AR156" s="4"/>
     </row>
-    <row r="157" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:44" ht="21.6" customHeight="1">
       <c r="A157" s="2">
         <v>0</v>
       </c>
@@ -22927,7 +22958,7 @@
       <c r="AQ157" s="3"/>
       <c r="AR157" s="4"/>
     </row>
-    <row r="158" spans="1:44" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:44" ht="30.6" customHeight="1">
       <c r="A158" s="2">
         <v>0</v>
       </c>
@@ -23051,7 +23082,7 @@
       <c r="AQ158" s="3"/>
       <c r="AR158" s="4"/>
     </row>
-    <row r="159" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:44" ht="21.6" customHeight="1">
       <c r="A159" s="2">
         <v>0</v>
       </c>
@@ -23175,7 +23206,7 @@
       <c r="AQ159" s="3"/>
       <c r="AR159" s="4"/>
     </row>
-    <row r="160" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:44" ht="21.6" customHeight="1">
       <c r="A160" s="2">
         <v>0</v>
       </c>
@@ -23299,7 +23330,7 @@
       <c r="AQ160" s="3"/>
       <c r="AR160" s="4"/>
     </row>
-    <row r="161" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:44" ht="21.6" customHeight="1">
       <c r="A161" s="2">
         <v>0</v>
       </c>
@@ -23423,7 +23454,7 @@
       <c r="AQ161" s="3"/>
       <c r="AR161" s="4"/>
     </row>
-    <row r="162" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:44" ht="15.6" customHeight="1">
       <c r="A162" s="2">
         <v>0</v>
       </c>
@@ -23547,7 +23578,7 @@
       <c r="AQ162" s="3"/>
       <c r="AR162" s="4"/>
     </row>
-    <row r="163" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:44" ht="21.6" customHeight="1">
       <c r="A163" s="2">
         <v>0</v>
       </c>
@@ -23671,7 +23702,7 @@
       <c r="AQ163" s="3"/>
       <c r="AR163" s="4"/>
     </row>
-    <row r="164" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:44" ht="15.6" customHeight="1">
       <c r="A164" s="2">
         <v>0</v>
       </c>
@@ -23795,7 +23826,7 @@
       <c r="AQ164" s="3"/>
       <c r="AR164" s="4"/>
     </row>
-    <row r="165" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:44" ht="15.6" customHeight="1">
       <c r="A165" s="2">
         <v>0</v>
       </c>
@@ -23919,7 +23950,7 @@
       <c r="AQ165" s="3"/>
       <c r="AR165" s="4"/>
     </row>
-    <row r="166" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:44" ht="15.6" customHeight="1">
       <c r="A166" s="2">
         <v>0</v>
       </c>
@@ -24043,7 +24074,7 @@
       <c r="AQ166" s="3"/>
       <c r="AR166" s="4"/>
     </row>
-    <row r="167" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:44" ht="15.6" customHeight="1">
       <c r="A167" s="2">
         <v>0</v>
       </c>
@@ -24167,7 +24198,7 @@
       <c r="AQ167" s="3"/>
       <c r="AR167" s="4"/>
     </row>
-    <row r="168" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:44" ht="15.6" customHeight="1">
       <c r="A168" s="2">
         <v>0</v>
       </c>
@@ -24291,7 +24322,7 @@
       <c r="AQ168" s="3"/>
       <c r="AR168" s="4"/>
     </row>
-    <row r="169" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:44" ht="15.6" customHeight="1">
       <c r="A169" s="2">
         <v>0</v>
       </c>
@@ -24415,7 +24446,7 @@
       <c r="AQ169" s="3"/>
       <c r="AR169" s="4"/>
     </row>
-    <row r="170" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:44" ht="15.6" customHeight="1">
       <c r="A170" s="2">
         <v>0</v>
       </c>
@@ -24539,7 +24570,7 @@
       <c r="AQ170" s="3"/>
       <c r="AR170" s="4"/>
     </row>
-    <row r="171" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:44" ht="15.6" customHeight="1">
       <c r="A171" s="2">
         <v>0</v>
       </c>
@@ -24665,7 +24696,7 @@
       <c r="AQ171" s="3"/>
       <c r="AR171" s="4"/>
     </row>
-    <row r="172" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:44" ht="21.6" customHeight="1">
       <c r="A172" s="2">
         <v>0</v>
       </c>
@@ -24789,7 +24820,7 @@
       <c r="AQ172" s="3"/>
       <c r="AR172" s="4"/>
     </row>
-    <row r="173" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:44" ht="15.6" customHeight="1">
       <c r="A173" s="2">
         <v>0</v>
       </c>
@@ -24913,7 +24944,7 @@
       <c r="AQ173" s="3"/>
       <c r="AR173" s="4"/>
     </row>
-    <row r="174" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:44" ht="21.6" customHeight="1">
       <c r="A174" s="2">
         <v>0</v>
       </c>
@@ -25037,7 +25068,7 @@
       <c r="AQ174" s="3"/>
       <c r="AR174" s="4"/>
     </row>
-    <row r="175" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:44" ht="21.6" customHeight="1">
       <c r="A175" s="2">
         <v>0</v>
       </c>
@@ -25161,7 +25192,7 @@
       <c r="AQ175" s="3"/>
       <c r="AR175" s="4"/>
     </row>
-    <row r="176" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:44" ht="15.6" customHeight="1">
       <c r="A176" s="2">
         <v>0</v>
       </c>
@@ -25285,7 +25316,7 @@
       <c r="AQ176" s="3"/>
       <c r="AR176" s="4"/>
     </row>
-    <row r="177" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:44" ht="15.6" customHeight="1">
       <c r="A177" s="2">
         <v>0</v>
       </c>
@@ -25409,7 +25440,7 @@
       <c r="AQ177" s="3"/>
       <c r="AR177" s="4"/>
     </row>
-    <row r="178" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:44" ht="15.6" customHeight="1">
       <c r="A178" s="2">
         <v>0</v>
       </c>
@@ -25533,7 +25564,7 @@
       <c r="AQ178" s="3"/>
       <c r="AR178" s="4"/>
     </row>
-    <row r="179" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:44" ht="15.6" customHeight="1">
       <c r="A179" s="2">
         <v>0</v>
       </c>
@@ -25655,7 +25686,7 @@
       <c r="AQ179" s="3"/>
       <c r="AR179" s="4"/>
     </row>
-    <row r="180" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:44" ht="21.6" customHeight="1">
       <c r="A180" s="2">
         <v>0</v>
       </c>
@@ -25781,7 +25812,7 @@
       <c r="AQ180" s="3"/>
       <c r="AR180" s="4"/>
     </row>
-    <row r="181" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:44" ht="15.6" customHeight="1">
       <c r="A181" s="2">
         <v>0</v>
       </c>
@@ -25905,7 +25936,7 @@
       <c r="AQ181" s="3"/>
       <c r="AR181" s="4"/>
     </row>
-    <row r="182" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A182" s="2">
         <v>0</v>
       </c>
@@ -26027,7 +26058,7 @@
       <c r="AQ182" s="3"/>
       <c r="AR182" s="4"/>
     </row>
-    <row r="183" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:44" ht="15.6" customHeight="1">
       <c r="A183" s="2">
         <v>0</v>
       </c>
@@ -26151,7 +26182,7 @@
       <c r="AQ183" s="3"/>
       <c r="AR183" s="4"/>
     </row>
-    <row r="184" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:44" ht="15.6" customHeight="1">
       <c r="A184" s="2">
         <v>0</v>
       </c>
@@ -26275,7 +26306,7 @@
       <c r="AQ184" s="3"/>
       <c r="AR184" s="4"/>
     </row>
-    <row r="185" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:44" ht="15.6" customHeight="1">
       <c r="A185" s="2">
         <v>0</v>
       </c>
@@ -26397,7 +26428,7 @@
       <c r="AQ185" s="3"/>
       <c r="AR185" s="4"/>
     </row>
-    <row r="186" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:44" ht="15.6" customHeight="1">
       <c r="A186" s="2">
         <v>0</v>
       </c>
@@ -26521,7 +26552,7 @@
       <c r="AQ186" s="3"/>
       <c r="AR186" s="4"/>
     </row>
-    <row r="187" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:44" ht="15.6" customHeight="1">
       <c r="A187" s="2">
         <v>0</v>
       </c>
@@ -26643,7 +26674,7 @@
       <c r="AQ187" s="3"/>
       <c r="AR187" s="4"/>
     </row>
-    <row r="188" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A188" s="2">
         <v>0</v>
       </c>
@@ -26767,7 +26798,7 @@
       <c r="AQ188" s="3"/>
       <c r="AR188" s="4"/>
     </row>
-    <row r="189" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:44" ht="21.6" customHeight="1">
       <c r="A189" s="2">
         <v>0</v>
       </c>
@@ -26891,7 +26922,7 @@
       <c r="AQ189" s="3"/>
       <c r="AR189" s="4"/>
     </row>
-    <row r="190" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:44" ht="15.6" customHeight="1">
       <c r="A190" s="2">
         <v>0</v>
       </c>
@@ -27017,7 +27048,7 @@
       <c r="AQ190" s="3"/>
       <c r="AR190" s="4"/>
     </row>
-    <row r="191" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:44" ht="15.6" customHeight="1">
       <c r="A191" s="2">
         <v>0</v>
       </c>
@@ -27139,7 +27170,7 @@
       <c r="AQ191" s="3"/>
       <c r="AR191" s="4"/>
     </row>
-    <row r="192" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:44" ht="21.6" customHeight="1">
       <c r="A192" s="2">
         <v>0</v>
       </c>
@@ -27261,7 +27292,7 @@
       <c r="AQ192" s="3"/>
       <c r="AR192" s="4"/>
     </row>
-    <row r="193" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:44" ht="15.6" customHeight="1">
       <c r="A193" s="2">
         <v>0</v>
       </c>
@@ -27387,7 +27418,7 @@
       <c r="AQ193" s="3"/>
       <c r="AR193" s="4"/>
     </row>
-    <row r="194" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:44" ht="15.6" customHeight="1">
       <c r="A194" s="2">
         <v>0</v>
       </c>
@@ -27511,7 +27542,7 @@
       <c r="AQ194" s="3"/>
       <c r="AR194" s="4"/>
     </row>
-    <row r="195" spans="1:44" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:44" ht="30.6" customHeight="1">
       <c r="A195" s="2">
         <v>0</v>
       </c>
@@ -27635,7 +27666,7 @@
       <c r="AQ195" s="3"/>
       <c r="AR195" s="4"/>
     </row>
-    <row r="196" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:44" ht="15.6" customHeight="1">
       <c r="A196" s="2">
         <v>0</v>
       </c>
@@ -27759,7 +27790,7 @@
       <c r="AQ196" s="3"/>
       <c r="AR196" s="4"/>
     </row>
-    <row r="197" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:44" ht="15.6" customHeight="1">
       <c r="A197" s="2">
         <v>0</v>
       </c>
@@ -27881,7 +27912,7 @@
       <c r="AQ197" s="3"/>
       <c r="AR197" s="4"/>
     </row>
-    <row r="198" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:44" ht="15.6" customHeight="1">
       <c r="A198" s="2">
         <v>0</v>
       </c>
@@ -28003,7 +28034,7 @@
       <c r="AQ198" s="3"/>
       <c r="AR198" s="4"/>
     </row>
-    <row r="199" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:44" ht="15.6" customHeight="1">
       <c r="A199" s="2">
         <v>0</v>
       </c>
@@ -28125,7 +28156,7 @@
       <c r="AQ199" s="3"/>
       <c r="AR199" s="4"/>
     </row>
-    <row r="200" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:44" ht="21.6" customHeight="1">
       <c r="A200" s="2">
         <v>0</v>
       </c>
@@ -28249,7 +28280,7 @@
       <c r="AQ200" s="3"/>
       <c r="AR200" s="4"/>
     </row>
-    <row r="201" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:44" ht="15.6" customHeight="1">
       <c r="A201" s="2">
         <v>0</v>
       </c>
@@ -28373,7 +28404,7 @@
       <c r="AQ201" s="3"/>
       <c r="AR201" s="4"/>
     </row>
-    <row r="202" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:44" ht="15.6" customHeight="1">
       <c r="A202" s="2">
         <v>0</v>
       </c>
@@ -28497,7 +28528,7 @@
       <c r="AQ202" s="3"/>
       <c r="AR202" s="4"/>
     </row>
-    <row r="203" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:44" ht="15.6" customHeight="1">
       <c r="A203" s="2">
         <v>0</v>
       </c>
@@ -28619,7 +28650,7 @@
       <c r="AQ203" s="3"/>
       <c r="AR203" s="4"/>
     </row>
-    <row r="204" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:44" ht="15.6" customHeight="1">
       <c r="A204" s="2">
         <v>0</v>
       </c>
@@ -28743,7 +28774,7 @@
       <c r="AQ204" s="3"/>
       <c r="AR204" s="4"/>
     </row>
-    <row r="205" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:44" ht="15.6" customHeight="1">
       <c r="A205" s="2">
         <v>0</v>
       </c>
@@ -28867,7 +28898,7 @@
       <c r="AQ205" s="3"/>
       <c r="AR205" s="4"/>
     </row>
-    <row r="206" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:44" ht="21.6" customHeight="1">
       <c r="A206" s="2">
         <v>0</v>
       </c>
@@ -28991,7 +29022,7 @@
       <c r="AQ206" s="3"/>
       <c r="AR206" s="4"/>
     </row>
-    <row r="207" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:44" ht="15.6" customHeight="1">
       <c r="A207" s="2">
         <v>0</v>
       </c>
@@ -29115,7 +29146,7 @@
       <c r="AQ207" s="3"/>
       <c r="AR207" s="4"/>
     </row>
-    <row r="208" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:44" ht="15.6" customHeight="1">
       <c r="A208" s="2">
         <v>0</v>
       </c>
@@ -29239,7 +29270,7 @@
       <c r="AQ208" s="3"/>
       <c r="AR208" s="4"/>
     </row>
-    <row r="209" spans="1:44" ht="30.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:44" ht="30.6" customHeight="1">
       <c r="A209" s="2">
         <v>0</v>
       </c>
@@ -29363,7 +29394,7 @@
       <c r="AQ209" s="3"/>
       <c r="AR209" s="4"/>
     </row>
-    <row r="210" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:44" ht="15.6" customHeight="1">
       <c r="A210" s="2">
         <v>0</v>
       </c>
@@ -29487,7 +29518,7 @@
       <c r="AQ210" s="3"/>
       <c r="AR210" s="4"/>
     </row>
-    <row r="211" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:44" ht="15.6" customHeight="1">
       <c r="A211" s="2">
         <v>0</v>
       </c>
@@ -29611,7 +29642,7 @@
       <c r="AQ211" s="3"/>
       <c r="AR211" s="4"/>
     </row>
-    <row r="212" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:44" ht="15.6" customHeight="1">
       <c r="A212" s="2">
         <v>0</v>
       </c>
@@ -29735,7 +29766,7 @@
       <c r="AQ212" s="3"/>
       <c r="AR212" s="4"/>
     </row>
-    <row r="213" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:44" ht="15.6" customHeight="1">
       <c r="A213" s="2">
         <v>0</v>
       </c>
@@ -29857,7 +29888,7 @@
       <c r="AQ213" s="3"/>
       <c r="AR213" s="4"/>
     </row>
-    <row r="214" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:44" ht="15.6" customHeight="1">
       <c r="A214" s="2">
         <v>0</v>
       </c>
@@ -29981,7 +30012,7 @@
       <c r="AQ214" s="3"/>
       <c r="AR214" s="4"/>
     </row>
-    <row r="215" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:44" ht="15.6" customHeight="1">
       <c r="A215" s="2">
         <v>0</v>
       </c>
@@ -30103,7 +30134,7 @@
       <c r="AQ215" s="3"/>
       <c r="AR215" s="4"/>
     </row>
-    <row r="216" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:44" ht="15.6" customHeight="1">
       <c r="A216" s="2">
         <v>0</v>
       </c>
@@ -30225,7 +30256,7 @@
       <c r="AQ216" s="3"/>
       <c r="AR216" s="4"/>
     </row>
-    <row r="217" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:44" ht="21.6" customHeight="1">
       <c r="A217" s="2">
         <v>0</v>
       </c>
@@ -30349,7 +30380,7 @@
       <c r="AQ217" s="3"/>
       <c r="AR217" s="4"/>
     </row>
-    <row r="218" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:44" ht="15.6" customHeight="1">
       <c r="A218" s="2">
         <v>0</v>
       </c>
@@ -30473,7 +30504,7 @@
       <c r="AQ218" s="3"/>
       <c r="AR218" s="4"/>
     </row>
-    <row r="219" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:44" ht="15.6" customHeight="1">
       <c r="A219" s="2">
         <v>0</v>
       </c>
@@ -30597,7 +30628,7 @@
       <c r="AQ219" s="3"/>
       <c r="AR219" s="4"/>
     </row>
-    <row r="220" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:44" ht="21.6" customHeight="1">
       <c r="A220" s="2">
         <v>0</v>
       </c>
@@ -30721,7 +30752,7 @@
       <c r="AQ220" s="3"/>
       <c r="AR220" s="4"/>
     </row>
-    <row r="221" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:44" ht="15.6" customHeight="1">
       <c r="A221" s="2">
         <v>0</v>
       </c>
@@ -30845,7 +30876,7 @@
       <c r="AQ221" s="3"/>
       <c r="AR221" s="4"/>
     </row>
-    <row r="222" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:44" ht="15.6" customHeight="1">
       <c r="A222" s="2">
         <v>0</v>
       </c>
@@ -30969,7 +31000,7 @@
       <c r="AQ222" s="3"/>
       <c r="AR222" s="4"/>
     </row>
-    <row r="223" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:44" ht="15.6" customHeight="1">
       <c r="A223" s="2">
         <v>0</v>
       </c>
@@ -31093,7 +31124,7 @@
       <c r="AQ223" s="3"/>
       <c r="AR223" s="4"/>
     </row>
-    <row r="224" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A224" s="2">
         <v>0</v>
       </c>
@@ -31217,7 +31248,7 @@
       <c r="AQ224" s="3"/>
       <c r="AR224" s="4"/>
     </row>
-    <row r="225" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:44" ht="21.6" customHeight="1">
       <c r="A225" s="2">
         <v>0</v>
       </c>
@@ -31341,7 +31372,7 @@
       <c r="AQ225" s="3"/>
       <c r="AR225" s="4"/>
     </row>
-    <row r="226" spans="1:44" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:44" ht="21.6" customHeight="1">
       <c r="A226" s="2">
         <v>0</v>
       </c>
@@ -31465,7 +31496,7 @@
       <c r="AQ226" s="3"/>
       <c r="AR226" s="4"/>
     </row>
-    <row r="227" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:44" ht="15.6" customHeight="1">
       <c r="A227" s="2">
         <v>0</v>
       </c>
@@ -31587,7 +31618,7 @@
       <c r="AQ227" s="3"/>
       <c r="AR227" s="4"/>
     </row>
-    <row r="228" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:44" ht="15.6" customHeight="1">
       <c r="A228" s="2">
         <v>0</v>
       </c>
@@ -31709,7 +31740,7 @@
       <c r="AQ228" s="3"/>
       <c r="AR228" s="4"/>
     </row>
-    <row r="229" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:44" ht="15.6" customHeight="1">
       <c r="A229" s="2">
         <v>0</v>
       </c>
@@ -31831,7 +31862,7 @@
       <c r="AQ229" s="3"/>
       <c r="AR229" s="4"/>
     </row>
-    <row r="230" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:44" ht="15.6" customHeight="1">
       <c r="A230" s="2">
         <v>0</v>
       </c>
@@ -31953,7 +31984,7 @@
       <c r="AQ230" s="3"/>
       <c r="AR230" s="4"/>
     </row>
-    <row r="231" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:44" ht="15.6" customHeight="1">
       <c r="A231" s="2">
         <v>0</v>
       </c>
@@ -32077,7 +32108,7 @@
       <c r="AQ231" s="3"/>
       <c r="AR231" s="4"/>
     </row>
-    <row r="232" spans="1:44" ht="18.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:44" ht="18.600000000000001" customHeight="1">
       <c r="A232" s="2">
         <v>0</v>
       </c>
@@ -32201,7 +32232,7 @@
       <c r="AQ232" s="3"/>
       <c r="AR232" s="4"/>
     </row>
-    <row r="233" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:44" ht="15.6" customHeight="1">
       <c r="A233" s="2">
         <v>0</v>
       </c>
@@ -32325,7 +32356,7 @@
       <c r="AQ233" s="3"/>
       <c r="AR233" s="4"/>
     </row>
-    <row r="234" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:44" ht="15.6" customHeight="1">
       <c r="A234" s="2">
         <v>0</v>
       </c>
@@ -32449,7 +32480,7 @@
       <c r="AQ234" s="3"/>
       <c r="AR234" s="4"/>
     </row>
-    <row r="235" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:44" ht="15.6" customHeight="1">
       <c r="A235" s="2">
         <v>0</v>
       </c>
@@ -32571,7 +32602,7 @@
       <c r="AQ235" s="3"/>
       <c r="AR235" s="4"/>
     </row>
-    <row r="236" spans="1:44" ht="15.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:44" ht="19.5" customHeight="1">
       <c r="A236" s="2">
         <v>0</v>
       </c>
@@ -32695,19 +32726,135 @@
       <c r="AQ236" s="3"/>
       <c r="AR236" s="4"/>
     </row>
-    <row r="237" spans="1:44" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="2" t="s">
+    <row r="237" spans="1:44" ht="19.5" customHeight="1">
+      <c r="A237" s="2">
+        <v>0</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F237" s="4">
+        <v>45464</v>
+      </c>
+      <c r="G237" s="3" t="s">
         <v>1108</v>
       </c>
+      <c r="H237" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="K237" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="L237" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="M237" s="5" t="s">
+        <v>1112</v>
+      </c>
+      <c r="N237" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="O237" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="P237" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="Q237" s="5" t="s">
+        <v>1113</v>
+      </c>
+      <c r="R237" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="S237" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T237" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="U237" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V237" s="4">
+        <v>45492</v>
+      </c>
       <c r="W237" s="6">
+        <v>999999.99</v>
+      </c>
+      <c r="X237" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="Y237" s="6">
+        <v>1000000000</v>
+      </c>
+      <c r="Z237" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AA237" s="7"/>
+      <c r="AB237" s="4"/>
+      <c r="AC237" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD237" s="7">
+        <v>666</v>
+      </c>
+      <c r="AE237" s="2"/>
+      <c r="AF237" s="2"/>
+      <c r="AG237" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AH237" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI237" s="6">
+        <v>999999.99</v>
+      </c>
+      <c r="AJ237" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="AK237" s="6">
+        <v>1000000000</v>
+      </c>
+      <c r="AL237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM237" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN237" s="3"/>
+      <c r="AO237" s="4"/>
+      <c r="AP237" s="3"/>
+      <c r="AQ237" s="3"/>
+      <c r="AR237" s="4"/>
+    </row>
+    <row r="238" spans="1:44" ht="12.6">
+      <c r="A238" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="W238" s="6">
         <f>SUM(W2:W236)</f>
         <v>453179.82000000012</v>
       </c>
-      <c r="X237" s="6">
+      <c r="X238" s="6">
         <f>SUM(X2:X236)</f>
         <v>87026.17</v>
       </c>
-      <c r="Y237" s="6">
+      <c r="Y238" s="6">
         <f>SUM(Y2:Y236)</f>
         <v>540205.99000000022</v>
       </c>
